--- a/referencia_2/Spline (1).xlsx
+++ b/referencia_2/Spline (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\Hidro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PNV3315\referencia_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B2E0C-C849-4C50-A2E3-F50ADD0B55DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D9082-EB4C-4CA6-A0CB-0D091F721A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E1ED6A0-1739-4BD8-9F2D-76EC84E9F335}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E1ED6A0-1739-4BD8-9F2D-76EC84E9F335}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -177,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,10 +497,13 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -540,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2">
@@ -588,7 +592,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -629,7 +633,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
@@ -670,7 +674,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
@@ -712,7 +716,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -754,7 +758,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
@@ -796,7 +800,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -838,7 +842,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
@@ -880,7 +884,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
@@ -922,7 +926,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -964,7 +968,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
@@ -1006,7 +1010,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
@@ -1048,7 +1052,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
@@ -1090,7 +1094,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15">
@@ -1132,7 +1136,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16">
@@ -1174,7 +1178,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
@@ -1258,7 +1262,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
@@ -1342,7 +1346,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
@@ -1384,7 +1388,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
@@ -1426,7 +1430,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
